--- a/Temp/Customer Service Internal Queue.xlsx
+++ b/Temp/Customer Service Internal Queue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -31,10 +31,10 @@
     <x:t>1. CSI1000</x:t>
   </x:si>
   <x:si>
-    <x:t>Very low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alice</x:t>
+    <x:t>Critical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robert K.</x:t>
   </x:si>
   <x:si>
     <x:t>01.04.2018</x:t>
@@ -43,9 +43,6 @@
     <x:t>2. CSI1008</x:t>
   </x:si>
   <x:si>
-    <x:t>Normal</x:t>
-  </x:si>
-  <x:si>
     <x:t>03.04.2018</x:t>
   </x:si>
   <x:si>
@@ -55,34 +52,25 @@
     <x:t>4. CSI1013</x:t>
   </x:si>
   <x:si>
+    <x:t>28.03.2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. CSI1018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. CSI1031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.04.2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. CSI1038</x:t>
+  </x:si>
+  <x:si>
     <x:t>High</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.03.2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. CSI1018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Critical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.03.2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. CSI1031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02.04.2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. CSI1038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robert K.</x:t>
   </x:si>
   <x:si>
     <x:t>23.03.2018</x:t>
@@ -475,18 +463,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>5</x:v>
@@ -500,58 +488,58 @@
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
